--- a/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_15.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_15.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N455"/>
+  <dimension ref="A1:N456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3933451175689697</v>
+        <v>0.0007941722869873047</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01574587821960449</v>
+        <v>0.0006039142608642578</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004183053970336914</v>
+        <v>0.0314178466796875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 1), (1, 0), (1, 2), (2, 1), (0, 0), (0, 2), (0, 3), (3, 2), (2, 2), (2, 0), (3, 0), (3, 1), (1, 3), (2, 3)]</t>
+          <t>[[0, 1], [1, 1], [1, 0], [1, 2], [2, 1], [0, 0], [0, 2], [0, 3], [3, 2], [2, 2], [2, 0], [3, 0], [3, 1], [1, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 0), (2, 2), (0, 1), (1, 3), (0, 3), (0, 2), (1, 2), (1, 1), (2, 1), (2, 0), (3, 0), (3, 2), (2, 3), (3, 3)]</t>
+          <t>[[3, 1], [1, 0], [2, 2], [0, 1], [1, 3], [0, 3], [0, 2], [1, 2], [1, 1], [2, 1], [2, 0], [3, 0], [3, 2], [2, 3], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[(0, 3), (1, 2), (3, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2), (1, 3), (2, 3)]</t>
+          <t>[[0, 3], [1, 2], [3, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2], [1, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>[(1, 3), (2, 3), (0, 3), (1, 2), (3, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2)]</t>
+          <t>[[1, 3], [2, 3], [0, 3], [1, 2], [3, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>[(3, 1), (3, 2), (1, 3), (2, 3), (0, 3), (1, 2), (3, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0)]</t>
+          <t>[[3, 1], [3, 2], [1, 3], [2, 3], [0, 3], [1, 2], [3, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0]]</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (2, 3), (3, 3), (2, 1), (3, 0), (2, 0), (3, 1), (3, 2), (2, 2), (1, 3), (1, 2), (0, 0), (0, 1), (1, 0)]</t>
+          <t>[[1, 1], [0, 2], [2, 3], [3, 3], [2, 1], [3, 0], [2, 0], [3, 1], [3, 2], [2, 2], [1, 3], [1, 2], [0, 0], [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>[(1, 3), (3, 3), (2, 2), (2, 1), (3, 0), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2), (2, 3)]</t>
+          <t>[[1, 3], [3, 3], [2, 2], [2, 1], [3, 0], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2], [2, 3]]</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>[(3, 2), (2, 2), (1, 3), (2, 3), (3, 3), (2, 1), (3, 0), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1)]</t>
+          <t>[[3, 2], [2, 2], [1, 3], [2, 3], [3, 3], [2, 1], [3, 0], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (3, 2), (3, 3), (1, 3), (2, 3), (2, 2), (3, 1), (3, 0), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0)]</t>
+          <t>[[2, 0], [2, 1], [3, 2], [3, 3], [1, 3], [2, 3], [2, 2], [3, 1], [3, 0], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>[(1, 2), (3, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2), (1, 3), (2, 3), (0, 3)]</t>
+          <t>[[1, 2], [3, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2], [1, 3], [2, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>[(0, 3), (3, 1), (3, 2), (1, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (3, 3)]</t>
+          <t>[[0, 3], [3, 1], [3, 2], [1, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>[(0, 3), (3, 1), (3, 2), (1, 3), (2, 3), (2, 2), (3, 0), (2, 0), (1, 2), (0, 1), (0, 0), (0, 2), (1, 1), (1, 0), (2, 1)]</t>
+          <t>[[0, 3], [3, 1], [3, 2], [1, 3], [2, 3], [2, 2], [3, 0], [2, 0], [1, 2], [0, 1], [0, 0], [0, 2], [1, 1], [1, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>[(1, 2), (3, 1), (3, 2), (1, 3), (2, 3), (2, 2), (3, 0), (2, 0), (1, 0), (2, 1), (0, 3), (0, 0), (1, 1), (0, 1), (0, 2)]</t>
+          <t>[[1, 2], [3, 1], [3, 2], [1, 3], [2, 3], [2, 2], [3, 0], [2, 0], [1, 0], [2, 1], [0, 3], [0, 0], [1, 1], [0, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -3855,110 +3855,120 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>113</v>
+        <v>0.993119802355678</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>315</v>
+        <v>113</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>13</v>
+        <v>315</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0.4492480754852295</v>
+        <v>13</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>0.08221316337585449</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D455" t="inlineStr">
+      <c r="D456" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E455" t="inlineStr">
+      <c r="E456" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F455" t="inlineStr">
+      <c r="F456" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G455" t="inlineStr">
+      <c r="G456" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
+      <c r="H456" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I455" t="inlineStr">
+      <c r="I456" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J455" t="inlineStr">
+      <c r="J456" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K455" t="inlineStr">
+      <c r="K456" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L455" t="inlineStr">
+      <c r="L456" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M455" t="inlineStr">
+      <c r="M456" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N455" t="inlineStr">
+      <c r="N456" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
